--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RenaTha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maçãs\Documents\GitHub\Sistema-Eventos\Documentos-SE\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -201,12 +202,6 @@
     <t>Slack</t>
   </si>
   <si>
-    <t>CHAPTER VI : INFRAESTRUTURA</t>
-  </si>
-  <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
     <t>Inicio 21/03</t>
   </si>
   <si>
@@ -319,13 +314,70 @@
   </si>
   <si>
     <t>OBS: Cada ponto é equivale 3 horas</t>
+  </si>
+  <si>
+    <t>CHAPTER VII : MANUTENÇÃO</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>Corrigir problemas na Sprint1</t>
+  </si>
+  <si>
+    <t>Correto - tudo funcionando</t>
+  </si>
+  <si>
+    <t>Revisar - falhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro </t>
+  </si>
+  <si>
+    <t>Resolver Bug da evento duplicado no BD</t>
+  </si>
+  <si>
+    <t>Botões radio button BUG</t>
+  </si>
+  <si>
+    <t>quebrar em mais tarefas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio </t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Modelagem Banco de dados - classe usuario</t>
+  </si>
+  <si>
+    <t>Modelar as classes - classe usuarios</t>
+  </si>
+  <si>
+    <t>Escrever a estória de usuário - classe usuarios</t>
+  </si>
+  <si>
+    <t>Inicio 14/04/2016</t>
+  </si>
+  <si>
+    <t>Fim 28/04/2016</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Notas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +424,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +478,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -534,66 +629,90 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,84 +1010,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -976,7 +1095,7 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -994,7 +1113,7 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1008,7 +1127,7 @@
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1022,7 +1141,7 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1099,32 +1218,32 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1265,32 +1384,32 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="16" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1359,32 +1478,32 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="16" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1455,32 +1574,32 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="16" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1488,7 +1607,7 @@
       <c r="A45" s="5">
         <v>25</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -1506,7 +1625,7 @@
       <c r="A46" s="5">
         <v>26</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1524,7 +1643,7 @@
       <c r="A47" s="5">
         <v>27</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -1540,7 +1659,7 @@
       <c r="A48" s="5">
         <v>28</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -1552,52 +1671,42 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B52" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D52" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E52" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>25</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
@@ -1615,48 +1724,32 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>27</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="3"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>28</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -1690,57 +1783,33 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="38"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="38" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A5:F5"/>
@@ -1758,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,354 +1841,354 @@
     <col min="6" max="6" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="21" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="B8" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="17">
+        <v>42450</v>
+      </c>
+      <c r="E8" s="17">
+        <v>42453</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="17">
+        <v>42450</v>
+      </c>
+      <c r="E9" s="17">
+        <v>42453</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="23">
-        <v>42450</v>
-      </c>
-      <c r="E8" s="23">
-        <v>42453</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="B10" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="23">
-        <v>42450</v>
-      </c>
-      <c r="E9" s="23">
-        <v>42453</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>42453</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>42453</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="17">
+        <v>42453</v>
+      </c>
+      <c r="E11" s="17">
+        <v>42453</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="23">
-        <v>42453</v>
-      </c>
-      <c r="E11" s="23">
-        <v>42453</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="17">
+        <v>42457</v>
+      </c>
+      <c r="E12" s="17">
+        <v>42464</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="23">
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="17">
         <v>42457</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E13" s="17">
         <v>42464</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="23">
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="17">
         <v>42457</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E14" s="17">
         <v>42464</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="23">
-        <v>42457</v>
-      </c>
-      <c r="E14" s="23">
-        <v>42464</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="17">
+        <v>42467</v>
+      </c>
+      <c r="E15" s="17">
+        <v>42468</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="23">
-        <v>42467</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="C16" s="3"/>
+      <c r="D16" s="17">
         <v>42468</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="E16" s="17">
+        <v>42469</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="23">
-        <v>42468</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="C17" s="3"/>
+      <c r="D17" s="17">
         <v>42469</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="E17" s="17">
+        <v>42470</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="17">
+        <v>42471</v>
+      </c>
+      <c r="E18" s="17">
+        <v>42471</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="23">
-        <v>42469</v>
-      </c>
-      <c r="E17" s="23">
-        <v>42470</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="23">
-        <v>42471</v>
-      </c>
-      <c r="E18" s="23">
-        <v>42471</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="B22" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="17">
         <v>42453</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="17">
         <v>42457</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>91</v>
+      <c r="A23" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="17">
         <v>42453</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="17">
         <v>42453</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>92</v>
+      <c r="A24" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="23">
+      <c r="D24" s="17">
         <v>42453</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="17">
         <v>42453</v>
       </c>
       <c r="F24" s="3"/>
@@ -2128,114 +2197,114 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="17">
         <v>42457</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="17">
         <v>42457</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>96</v>
+      <c r="A30" s="37" t="s">
+        <v>94</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="17">
         <v>42457</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="17">
         <v>42457</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="3"/>
     </row>
   </sheetData>
@@ -2246,4 +2315,274 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="17">
+        <v>42474</v>
+      </c>
+      <c r="E8" s="17">
+        <v>42478</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="17">
+        <v>42474</v>
+      </c>
+      <c r="E9" s="17">
+        <v>42478</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="17">
+        <v>42474</v>
+      </c>
+      <c r="E10" s="17">
+        <v>42478</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="17">
+        <v>42474</v>
+      </c>
+      <c r="E11" s="17">
+        <v>42478</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="134">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -334,12 +334,6 @@
     <t xml:space="preserve">Erro </t>
   </si>
   <si>
-    <t>Resolver Bug da evento duplicado no BD</t>
-  </si>
-  <si>
-    <t>Botões radio button BUG</t>
-  </si>
-  <si>
     <t>quebrar em mais tarefas</t>
   </si>
   <si>
@@ -352,12 +346,6 @@
     <t>Modelagem Banco de dados - classe usuario</t>
   </si>
   <si>
-    <t>Modelar as classes - classe usuarios</t>
-  </si>
-  <si>
-    <t>Escrever a estória de usuário - classe usuarios</t>
-  </si>
-  <si>
     <t>Inicio 14/04/2016</t>
   </si>
   <si>
@@ -371,13 +359,85 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>História de Usuario 5 - Incluir Usuário</t>
+  </si>
+  <si>
+    <t>Modelar o diagrama da classe - classe usuario</t>
+  </si>
+  <si>
+    <t>Escrever história de usuário</t>
+  </si>
+  <si>
+    <t>Sérgio + Luís</t>
+  </si>
+  <si>
+    <t>1pt</t>
+  </si>
+  <si>
+    <t>2 pts</t>
+  </si>
+  <si>
+    <t>Testar a funcionalidade de incluir usuario</t>
+  </si>
+  <si>
+    <t>1 pt</t>
+  </si>
+  <si>
+    <t>Demonstrar a história (Sprint review - PO)</t>
+  </si>
+  <si>
+    <t>História de Usuario 6 – Editar Usuário</t>
+  </si>
+  <si>
+    <t>Testar a funcionalidade de editar usuario</t>
+  </si>
+  <si>
+    <t>História de Usuario 8 – Consultar Usuário</t>
+  </si>
+  <si>
+    <t>Testar a funcionalidade de consultar usuario</t>
+  </si>
+  <si>
+    <t>História de Usuario 9 – Listar Usuários</t>
+  </si>
+  <si>
+    <t>Testar a funcionalidade de listar usuario</t>
+  </si>
+  <si>
+    <t>História de Usuário 25 – BugFixing</t>
+  </si>
+  <si>
+    <t>Evento duplicado no BD</t>
+  </si>
+  <si>
+    <t>Alterar evento radio button</t>
+  </si>
+  <si>
+    <t>Atualização das telas de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limite de inscrições </t>
+  </si>
+  <si>
+    <t>Sérgio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérgio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renata </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,8 +503,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,8 +596,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -607,11 +740,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -656,50 +817,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -713,6 +841,76 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -1010,30 +1208,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1044,14 +1242,14 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -1064,10 +1262,10 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
@@ -1095,7 +1293,7 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1113,7 +1311,7 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1127,7 +1325,7 @@
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1141,7 +1339,7 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1220,10 +1418,10 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
@@ -1386,10 +1584,10 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
@@ -1480,10 +1678,10 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
@@ -1576,10 +1774,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
@@ -1607,7 +1805,7 @@
       <c r="A45" s="5">
         <v>25</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -1625,7 +1823,7 @@
       <c r="A46" s="5">
         <v>26</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1643,7 +1841,7 @@
       <c r="A47" s="5">
         <v>27</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -1659,7 +1857,7 @@
       <c r="A48" s="5">
         <v>28</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -1682,10 +1880,10 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
@@ -1784,26 +1982,26 @@
       <c r="F60" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="38"/>
+      <c r="A63" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="27"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="38" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="27" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="38" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1827,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1842,8 +2040,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>113</v>
+      <c r="A1" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1857,7 +2055,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1890,14 +2088,14 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1920,39 +2118,39 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>42450</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>42453</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>42450</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>42453</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1961,32 +2159,32 @@
       <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>42453</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>42453</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>42453</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>42453</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1995,16 +2193,16 @@
       <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>42457</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>42464</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2013,16 +2211,16 @@
       <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>42457</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>42464</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2031,74 +2229,74 @@
       <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>42457</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>42464</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>42467</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>42468</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>42468</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>42469</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>42469</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>42470</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>42471</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>42471</v>
       </c>
       <c r="F18" s="3"/>
@@ -2112,14 +2310,14 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -2142,7 +2340,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2151,16 +2349,16 @@
       <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>42453</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>42457</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2169,26 +2367,26 @@
       <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>42453</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>42453</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>42453</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>42453</v>
       </c>
       <c r="F24" s="3"/>
@@ -2210,14 +2408,14 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -2240,7 +2438,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2249,16 +2447,16 @@
       <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>42457</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>42457</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="26" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2267,16 +2465,16 @@
       <c r="C30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>42457</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>42457</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="10"/>
@@ -2319,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,251 +2535,745 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="44">
+        <v>42474</v>
+      </c>
+      <c r="E8" s="44">
+        <v>42478</v>
+      </c>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="44">
+        <v>42474</v>
+      </c>
+      <c r="E9" s="44">
+        <v>42478</v>
+      </c>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="44">
+        <v>42474</v>
+      </c>
+      <c r="E10" s="44">
+        <v>42481</v>
+      </c>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="44">
+        <v>42474</v>
+      </c>
+      <c r="E11" s="44">
+        <v>42478</v>
+      </c>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="44">
+        <v>42478</v>
+      </c>
+      <c r="E12" s="44">
+        <v>42483</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="44">
+        <v>42478</v>
+      </c>
+      <c r="E13" s="44">
+        <v>42483</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="44">
+        <v>42483</v>
+      </c>
+      <c r="E14" s="44">
+        <v>42484</v>
+      </c>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="44">
+        <v>42485</v>
+      </c>
+      <c r="E15" s="44">
+        <v>42486</v>
+      </c>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="44">
+        <v>42486</v>
+      </c>
+      <c r="E16" s="44">
+        <v>42486</v>
+      </c>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="44">
+        <v>42487</v>
+      </c>
+      <c r="E17" s="44">
+        <v>42487</v>
+      </c>
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="44">
+        <v>42488</v>
+      </c>
+      <c r="E18" s="44">
+        <v>42488</v>
+      </c>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B20" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C20" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D20" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E20" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="44">
+        <v>42478</v>
+      </c>
+      <c r="E21" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="44">
+        <v>42478</v>
+      </c>
+      <c r="E22" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="44">
+        <v>42478</v>
+      </c>
+      <c r="E23" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="44">
+        <v>42485</v>
+      </c>
+      <c r="E24" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="44">
+        <v>42485</v>
+      </c>
+      <c r="E25" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="17">
-        <v>42474</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="C28" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="44">
         <v>42478</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="17">
-        <v>42474</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="E28" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="44">
         <v>42478</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="17">
-        <v>42474</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="E29" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="44">
         <v>42478</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="E30" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="17">
-        <v>42474</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="C31" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="44">
+        <v>42485</v>
+      </c>
+      <c r="E31" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="44">
+        <v>42485</v>
+      </c>
+      <c r="E32" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="44">
         <v>42478</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="E35" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F35" s="43"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B36" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="44">
+        <v>42478</v>
+      </c>
+      <c r="E36" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F36" s="43"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B37" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="44">
+        <v>42478</v>
+      </c>
+      <c r="E37" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
+      <c r="B38" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="44">
+        <v>42485</v>
+      </c>
+      <c r="E38" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="44">
+        <v>42485</v>
+      </c>
+      <c r="E39" s="44">
+        <v>42485</v>
+      </c>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="44">
+        <v>42479</v>
+      </c>
+      <c r="E42" s="44">
+        <v>42483</v>
+      </c>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="44">
+        <v>42479</v>
+      </c>
+      <c r="E43" s="44">
+        <v>42483</v>
+      </c>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="48">
+        <v>42479</v>
+      </c>
+      <c r="E44" s="48">
+        <v>42483</v>
+      </c>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="51">
+        <v>42479</v>
+      </c>
+      <c r="E45" s="51">
+        <v>42483</v>
+      </c>
+      <c r="F45" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="134">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -841,6 +841,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,56 +905,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,30 +1208,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1242,14 +1242,14 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -1262,10 +1262,10 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
@@ -1418,10 +1418,10 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
@@ -1584,10 +1584,10 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
@@ -1678,10 +1678,10 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
@@ -1774,10 +1774,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
@@ -1880,10 +1880,10 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="29"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
@@ -2025,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2088,14 +2088,14 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -2310,14 +2310,14 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -2408,14 +2408,14 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -2519,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,738 +2534,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="37">
         <v>42474</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="37">
         <v>42478</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="37">
         <v>42474</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="37">
         <v>42478</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="37">
         <v>42474</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="37">
         <v>42481</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="37">
         <v>42474</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="37">
         <v>42478</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="37">
         <v>42478</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="37">
         <v>42483</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="37">
         <v>42478</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="37">
         <v>42483</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="37">
         <v>42483</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="37">
         <v>42484</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="37">
+        <v>42483</v>
+      </c>
+      <c r="E15" s="37">
+        <v>42484</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E16" s="37">
         <v>42485</v>
       </c>
-      <c r="E15" s="44">
-        <v>42486</v>
-      </c>
-      <c r="F15" s="43"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C17" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="44">
-        <v>42486</v>
-      </c>
-      <c r="E16" s="44">
-        <v>42486</v>
-      </c>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="43" t="s">
+      <c r="D17" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E17" s="37">
+        <v>42487</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C18" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="37">
+        <v>42488</v>
+      </c>
+      <c r="E18" s="37">
+        <v>42488</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E21" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E22" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E23" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E24" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="44">
-        <v>42487</v>
-      </c>
-      <c r="E17" s="44">
-        <v>42487</v>
-      </c>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="D25" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E25" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E28" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E29" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E30" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C31" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E31" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E32" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E35" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E36" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="44">
-        <v>42488</v>
-      </c>
-      <c r="E18" s="44">
-        <v>42488</v>
-      </c>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="D37" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E37" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E38" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E39" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B41" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C41" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D41" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E41" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F41" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E21" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E22" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F22" s="43"/>
-    </row>
-    <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="43" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E23" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F23" s="43"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E24" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E25" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="43" t="s">
+      <c r="D42" s="37">
+        <v>42479</v>
+      </c>
+      <c r="E42" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E28" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F28" s="43"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E29" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="C43" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E30" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F30" s="43"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E31" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F31" s="43"/>
-    </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E32" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F32" s="43"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="43" t="s">
+      <c r="D43" s="37">
+        <v>42479</v>
+      </c>
+      <c r="E43" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E35" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F35" s="43"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E36" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="43" t="s">
+      <c r="C44" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E37" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E38" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F38" s="43"/>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E39" s="44">
-        <v>42485</v>
-      </c>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43" t="s">
+      <c r="D44" s="40">
+        <v>42479</v>
+      </c>
+      <c r="E44" s="40">
+        <v>42483</v>
+      </c>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D45" s="43">
         <v>42479</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E45" s="43">
         <v>42483</v>
       </c>
-      <c r="F42" s="43"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="44">
-        <v>42479</v>
-      </c>
-      <c r="E43" s="44">
-        <v>42483</v>
-      </c>
-      <c r="F43" s="46"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="48">
-        <v>42479</v>
-      </c>
-      <c r="E44" s="48">
-        <v>42483</v>
-      </c>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="51">
-        <v>42479</v>
-      </c>
-      <c r="E45" s="51">
-        <v>42483</v>
-      </c>
-      <c r="F45" s="50"/>
+      <c r="F45" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="159">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -406,9 +407,6 @@
     <t>Testar a funcionalidade de listar usuario</t>
   </si>
   <si>
-    <t>História de Usuário 25 – BugFixing</t>
-  </si>
-  <si>
     <t>Evento duplicado no BD</t>
   </si>
   <si>
@@ -428,6 +426,84 @@
   </si>
   <si>
     <t xml:space="preserve">Renata </t>
+  </si>
+  <si>
+    <t>Inicio 09/05/2016</t>
+  </si>
+  <si>
+    <t>Fim 30/05/2016</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>História de Usuario 21 - Autenticação Login</t>
+  </si>
+  <si>
+    <t>Luís</t>
+  </si>
+  <si>
+    <t>Testar a funcionalidade de autenticar login</t>
+  </si>
+  <si>
+    <t>Modelagem Banco de dados - classe login</t>
+  </si>
+  <si>
+    <t>História de Usuario 22 – Alterar Senha</t>
+  </si>
+  <si>
+    <t>Renata + Luís</t>
+  </si>
+  <si>
+    <t>História de Usuario 23 – Esquecimento Senha</t>
+  </si>
+  <si>
+    <t>História de Usuário 26 – BugFixing</t>
+  </si>
+  <si>
+    <t>História de Usuário 27 – BugFixing</t>
+  </si>
+  <si>
+    <t>Otimização e Segurança Sprint2</t>
+  </si>
+  <si>
+    <t>Ocultar campos Booleanos/Evento</t>
+  </si>
+  <si>
+    <t>Validar campo obrigatório/Usuario</t>
+  </si>
+  <si>
+    <t>QntidadeInscritos/Evento aparecer método consultar</t>
+  </si>
+  <si>
+    <t>Atualizar Diagrama de classes</t>
+  </si>
+  <si>
+    <t>Atualizar Estória de Usuario - Usuario</t>
+  </si>
+  <si>
+    <t>Remover Negrito Cadastros</t>
+  </si>
+  <si>
+    <t>Senha/Usuario Criptografar</t>
+  </si>
+  <si>
+    <t>Incluir HoraInicio e HoraFim Evento</t>
+  </si>
+  <si>
+    <t>Criação Pagina Automatica Heroku - Cloud Computing/Servidor</t>
+  </si>
+  <si>
+    <t>Estudo Maven (Conceito e Aplicação)</t>
+  </si>
+  <si>
+    <t>Exportar Projeto Maven e Atualizar Repositório GitHUb</t>
+  </si>
+  <si>
+    <t>3 pt</t>
+  </si>
+  <si>
+    <t>2 pt</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1369,7 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1311,7 +1387,7 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1325,7 +1401,7 @@
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1339,7 +1415,7 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1353,7 +1429,7 @@
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1369,7 +1445,7 @@
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1383,7 +1459,7 @@
       <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1397,7 +1473,7 @@
       <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1709,13 +1785,15 @@
       <c r="A38" s="5">
         <v>21</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
@@ -1723,13 +1801,15 @@
       <c r="A39" s="5">
         <v>22</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
@@ -1737,13 +1817,15 @@
       <c r="A40" s="5">
         <v>23</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
@@ -1751,7 +1833,7 @@
       <c r="A41" s="5">
         <v>24</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -1911,7 +1993,7 @@
       <c r="A53" s="5">
         <v>26</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -1926,12 +2008,22 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="5">
+        <v>27</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
@@ -2519,7 +2611,779 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="37">
+        <v>42474</v>
+      </c>
+      <c r="E8" s="37">
+        <v>42478</v>
+      </c>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="37">
+        <v>42474</v>
+      </c>
+      <c r="E9" s="37">
+        <v>42478</v>
+      </c>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="37">
+        <v>42474</v>
+      </c>
+      <c r="E10" s="37">
+        <v>42481</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="37">
+        <v>42474</v>
+      </c>
+      <c r="E11" s="37">
+        <v>42478</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E12" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E13" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="37">
+        <v>42483</v>
+      </c>
+      <c r="E14" s="37">
+        <v>42484</v>
+      </c>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="37">
+        <v>42483</v>
+      </c>
+      <c r="E15" s="37">
+        <v>42484</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E16" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E17" s="37">
+        <v>42487</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="37">
+        <v>42488</v>
+      </c>
+      <c r="E18" s="37">
+        <v>42488</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E21" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E22" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E23" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E24" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E25" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E28" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E29" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E30" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E31" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E32" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E35" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E36" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="37">
+        <v>42478</v>
+      </c>
+      <c r="E37" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="37">
+        <v>42484</v>
+      </c>
+      <c r="E38" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="37">
+        <v>42485</v>
+      </c>
+      <c r="E39" s="37">
+        <v>42485</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="37">
+        <v>42479</v>
+      </c>
+      <c r="E42" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="37">
+        <v>42479</v>
+      </c>
+      <c r="E43" s="37">
+        <v>42483</v>
+      </c>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="40">
+        <v>42479</v>
+      </c>
+      <c r="E44" s="40">
+        <v>42483</v>
+      </c>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="43">
+        <v>42479</v>
+      </c>
+      <c r="E45" s="43">
+        <v>42483</v>
+      </c>
+      <c r="F45" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -2535,7 +3399,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2555,7 +3419,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2565,7 +3429,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -2583,7 +3447,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -2619,31 +3483,31 @@
         <v>104</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D8" s="37">
-        <v>42474</v>
+        <v>42501</v>
       </c>
       <c r="E8" s="37">
-        <v>42478</v>
+        <v>42506</v>
       </c>
       <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D9" s="37">
-        <v>42474</v>
+        <v>42501</v>
       </c>
       <c r="E9" s="37">
-        <v>42478</v>
+        <v>42506</v>
       </c>
       <c r="F9" s="36"/>
     </row>
@@ -2655,13 +3519,13 @@
         <v>81</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D10" s="37">
-        <v>42474</v>
+        <v>42501</v>
       </c>
       <c r="E10" s="37">
-        <v>42481</v>
+        <v>42506</v>
       </c>
       <c r="F10" s="36"/>
     </row>
@@ -2673,13 +3537,13 @@
         <v>68</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D11" s="37">
-        <v>42474</v>
+        <v>42501</v>
       </c>
       <c r="E11" s="37">
-        <v>42478</v>
+        <v>42506</v>
       </c>
       <c r="F11" s="36"/>
     </row>
@@ -2694,50 +3558,46 @@
         <v>75</v>
       </c>
       <c r="D12" s="37">
-        <v>42478</v>
+        <v>42506</v>
       </c>
       <c r="E12" s="37">
-        <v>42483</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>102</v>
-      </c>
+        <v>42509</v>
+      </c>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D13" s="37">
-        <v>42478</v>
+        <v>42506</v>
       </c>
       <c r="E13" s="37">
-        <v>42483</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>102</v>
-      </c>
+        <v>42509</v>
+      </c>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" s="37">
-        <v>42483</v>
+        <v>42506</v>
       </c>
       <c r="E14" s="37">
-        <v>42484</v>
+        <v>42509</v>
       </c>
       <c r="F14" s="36"/>
     </row>
@@ -2752,16 +3612,16 @@
         <v>116</v>
       </c>
       <c r="D15" s="37">
-        <v>42483</v>
+        <v>42506</v>
       </c>
       <c r="E15" s="37">
-        <v>42484</v>
+        <v>42509</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -2770,10 +3630,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="37">
-        <v>42484</v>
+        <v>42506</v>
       </c>
       <c r="E16" s="37">
-        <v>42485</v>
+        <v>42509</v>
       </c>
       <c r="F16" s="36"/>
     </row>
@@ -2788,10 +3648,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="37">
-        <v>42485</v>
+        <v>42506</v>
       </c>
       <c r="E17" s="37">
-        <v>42487</v>
+        <v>42509</v>
       </c>
       <c r="F17" s="36"/>
     </row>
@@ -2803,19 +3663,19 @@
         <v>68</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D18" s="37">
-        <v>42488</v>
+        <v>42506</v>
       </c>
       <c r="E18" s="37">
-        <v>42488</v>
+        <v>42509</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2848,16 +3708,16 @@
         <v>73</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D21" s="37">
-        <v>42478</v>
+        <v>42509</v>
       </c>
       <c r="E21" s="37">
-        <v>42483</v>
+        <v>42513</v>
       </c>
       <c r="F21" s="36"/>
     </row>
@@ -2866,16 +3726,16 @@
         <v>76</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="37">
-        <v>42478</v>
+        <v>42509</v>
       </c>
       <c r="E22" s="37">
-        <v>42483</v>
+        <v>42513</v>
       </c>
       <c r="F22" s="36"/>
     </row>
@@ -2884,16 +3744,16 @@
         <v>78</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D23" s="37">
-        <v>42478</v>
+        <v>42509</v>
       </c>
       <c r="E23" s="37">
-        <v>42485</v>
+        <v>42513</v>
       </c>
       <c r="F23" s="36"/>
     </row>
@@ -2908,10 +3768,10 @@
         <v>116</v>
       </c>
       <c r="D24" s="37">
-        <v>42484</v>
+        <v>42509</v>
       </c>
       <c r="E24" s="37">
-        <v>42485</v>
+        <v>42513</v>
       </c>
       <c r="F24" s="36"/>
     </row>
@@ -2926,16 +3786,16 @@
         <v>118</v>
       </c>
       <c r="D25" s="37">
-        <v>42485</v>
+        <v>42509</v>
       </c>
       <c r="E25" s="37">
-        <v>42485</v>
+        <v>42513</v>
       </c>
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2971,13 +3831,13 @@
         <v>81</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D28" s="37">
-        <v>42478</v>
+        <v>42513</v>
       </c>
       <c r="E28" s="37">
-        <v>42483</v>
+        <v>42516</v>
       </c>
       <c r="F28" s="36"/>
     </row>
@@ -2986,16 +3846,16 @@
         <v>76</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="37">
-        <v>42478</v>
+        <v>42513</v>
       </c>
       <c r="E29" s="37">
-        <v>42483</v>
+        <v>42516</v>
       </c>
       <c r="F29" s="36"/>
     </row>
@@ -3004,16 +3864,16 @@
         <v>78</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D30" s="37">
-        <v>42478</v>
+        <v>42513</v>
       </c>
       <c r="E30" s="37">
-        <v>42485</v>
+        <v>42516</v>
       </c>
       <c r="F30" s="36"/>
     </row>
@@ -3028,10 +3888,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="37">
-        <v>42484</v>
+        <v>42513</v>
       </c>
       <c r="E31" s="37">
-        <v>42485</v>
+        <v>42516</v>
       </c>
       <c r="F31" s="36"/>
     </row>
@@ -3046,16 +3906,16 @@
         <v>118</v>
       </c>
       <c r="D32" s="37">
-        <v>42485</v>
+        <v>42513</v>
       </c>
       <c r="E32" s="37">
-        <v>42485</v>
+        <v>42516</v>
       </c>
       <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -3084,204 +3944,209 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>73</v>
+      <c r="A35" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="B35" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E35" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E36" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E37" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E38" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="37">
-        <v>42478</v>
-      </c>
-      <c r="E35" s="37">
-        <v>42483</v>
-      </c>
-      <c r="F35" s="36"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="37">
-        <v>42478</v>
-      </c>
-      <c r="E36" s="37">
-        <v>42483</v>
-      </c>
-      <c r="F36" s="36"/>
-    </row>
-    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="37">
-        <v>42478</v>
-      </c>
-      <c r="E37" s="37">
-        <v>42485</v>
-      </c>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="37">
-        <v>42484</v>
-      </c>
-      <c r="E38" s="37">
-        <v>42485</v>
-      </c>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>68</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>118</v>
       </c>
       <c r="D39" s="37">
-        <v>42485</v>
+        <v>42499</v>
       </c>
       <c r="E39" s="37">
-        <v>42485</v>
-      </c>
-      <c r="F39" s="36"/>
+        <v>42506</v>
+      </c>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
+      <c r="A40" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E40" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="A41" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E41" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E42" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="37">
-        <v>42479</v>
-      </c>
-      <c r="E42" s="37">
-        <v>42483</v>
-      </c>
-      <c r="F42" s="36"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>81</v>
-      </c>
       <c r="C43" s="36" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="D43" s="37">
-        <v>42479</v>
+        <v>42499</v>
       </c>
       <c r="E43" s="37">
-        <v>42483</v>
-      </c>
-      <c r="F43" s="38"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>81</v>
+        <v>42506</v>
+      </c>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="40">
-        <v>42479</v>
-      </c>
-      <c r="E44" s="40">
-        <v>42483</v>
-      </c>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D44" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E44" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>81</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="43">
-        <v>42479</v>
-      </c>
-      <c r="E45" s="43">
-        <v>42483</v>
+        <v>118</v>
+      </c>
+      <c r="D45" s="37">
+        <v>42499</v>
+      </c>
+      <c r="E45" s="37">
+        <v>42506</v>
       </c>
       <c r="F45" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="162">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -491,19 +491,28 @@
     <t>Incluir HoraInicio e HoraFim Evento</t>
   </si>
   <si>
-    <t>Criação Pagina Automatica Heroku - Cloud Computing/Servidor</t>
-  </si>
-  <si>
-    <t>Estudo Maven (Conceito e Aplicação)</t>
-  </si>
-  <si>
-    <t>Exportar Projeto Maven e Atualizar Repositório GitHUb</t>
-  </si>
-  <si>
     <t>3 pt</t>
   </si>
   <si>
     <t>2 pt</t>
+  </si>
+  <si>
+    <t>Modelar o diagrama da classe - classe login</t>
+  </si>
+  <si>
+    <t>Criar pagina automatica Evento</t>
+  </si>
+  <si>
+    <t>Adicionar na Estória de Usuario/Evento</t>
+  </si>
+  <si>
+    <t>História de Usuário 28 – Evento/Usuario</t>
+  </si>
+  <si>
+    <t>Criar Pagina Automatica</t>
+  </si>
+  <si>
+    <t>Validação Datas/Eventos</t>
   </si>
 </sst>
 </file>
@@ -715,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -844,11 +853,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -986,6 +1021,17 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,27 +1515,33 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
         <v>8</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="3">
+        <v>28</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1633,7 +1685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>16</v>
       </c>
@@ -1648,14 +1700,6 @@
       <c r="F27" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -1808,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1824,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3381,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3521,7 @@
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>104</v>
@@ -3655,15 +3699,15 @@
       </c>
       <c r="F17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>68</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D18" s="37">
         <v>42506</v>
@@ -3671,65 +3715,65 @@
       <c r="E18" s="37">
         <v>42509</v>
       </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="37">
+        <v>42506</v>
+      </c>
+      <c r="E19" s="37">
+        <v>42509</v>
+      </c>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B21" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D21" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E21" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F21" s="34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="37">
-        <v>42509</v>
-      </c>
-      <c r="E21" s="37">
-        <v>42513</v>
-      </c>
-      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D22" s="37">
         <v>42509</v>
@@ -3739,15 +3783,15 @@
       </c>
       <c r="F22" s="36"/>
     </row>
-    <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D23" s="37">
         <v>42509</v>
@@ -3757,15 +3801,15 @@
       </c>
       <c r="F23" s="36"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>80</v>
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D24" s="37">
         <v>42509</v>
@@ -3775,15 +3819,15 @@
       </c>
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" s="37">
         <v>42509</v>
@@ -3793,63 +3837,63 @@
       </c>
       <c r="F25" s="36"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+    <row r="26" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="37">
+        <v>42509</v>
+      </c>
+      <c r="E26" s="37">
+        <v>42513</v>
+      </c>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B28" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C28" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F28" s="34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="37">
-        <v>42513</v>
-      </c>
-      <c r="E28" s="37">
-        <v>42516</v>
-      </c>
-      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D29" s="37">
         <v>42513</v>
@@ -3859,15 +3903,15 @@
       </c>
       <c r="F29" s="36"/>
     </row>
-    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D30" s="37">
         <v>42513</v>
@@ -3877,15 +3921,15 @@
       </c>
       <c r="F30" s="36"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>80</v>
+    <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D31" s="37">
         <v>42513</v>
@@ -3895,15 +3939,15 @@
       </c>
       <c r="F31" s="36"/>
     </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" s="37">
         <v>42513</v>
@@ -3913,60 +3957,60 @@
       </c>
       <c r="F32" s="36"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="37">
+        <v>42513</v>
+      </c>
+      <c r="E33" s="37">
+        <v>42516</v>
+      </c>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B35" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C35" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E35" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F35" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B36" s="36" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="37">
-        <v>42499</v>
-      </c>
-      <c r="E35" s="37">
-        <v>42506</v>
-      </c>
-      <c r="F35" s="38"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>103</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>118</v>
@@ -3977,11 +4021,11 @@
       <c r="E36" s="37">
         <v>42506</v>
       </c>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>148</v>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="B37" s="39" t="s">
         <v>103</v>
@@ -3995,14 +4039,14 @@
       <c r="E37" s="37">
         <v>42506</v>
       </c>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>104</v>
+        <v>148</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>118</v>
@@ -4015,12 +4059,12 @@
       </c>
       <c r="F38" s="42"/>
     </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>81</v>
+        <v>149</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>118</v>
@@ -4033,12 +4077,12 @@
       </c>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>103</v>
+        <v>150</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>118</v>
@@ -4053,13 +4097,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D41" s="37">
         <v>42499</v>
@@ -4071,12 +4115,12 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="37">
@@ -4087,15 +4131,15 @@
       </c>
       <c r="F42" s="42"/>
     </row>
-    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D43" s="37">
         <v>42499</v>
@@ -4105,48 +4149,57 @@
       </c>
       <c r="F43" s="42"/>
     </row>
-    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="37">
-        <v>42499</v>
-      </c>
-      <c r="E44" s="37">
-        <v>42506</v>
-      </c>
-      <c r="F44" s="42"/>
-    </row>
-    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>81</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D45" s="37">
-        <v>42499</v>
+        <v>42506</v>
       </c>
       <c r="E45" s="37">
-        <v>42506</v>
+        <v>42509</v>
       </c>
       <c r="F45" s="42"/>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="163">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Validação Datas/Eventos</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -998,30 +1001,6 @@
     <xf numFmtId="164" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1032,6 +1011,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,30 +1333,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1364,14 +1367,14 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -1384,10 +1387,10 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
@@ -1516,18 +1519,18 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="44">
         <v>8</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1546,10 +1549,10 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
@@ -1704,10 +1707,10 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
@@ -1798,10 +1801,10 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
@@ -1900,10 +1903,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
@@ -2006,10 +2009,10 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="45"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
@@ -2224,14 +2227,14 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -2446,14 +2449,14 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -2544,14 +2547,14 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -2718,14 +2721,14 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
@@ -2950,14 +2953,14 @@
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
@@ -3070,14 +3073,14 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -3190,14 +3193,14 @@
       <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
@@ -3310,14 +3313,14 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
@@ -3428,7 +3431,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,14 +3493,14 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
@@ -3736,14 +3739,14 @@
       <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
@@ -3856,14 +3859,14 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
@@ -3976,14 +3979,14 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
@@ -4021,7 +4024,9 @@
       <c r="E36" s="37">
         <v>42506</v>
       </c>
-      <c r="F36" s="38"/>
+      <c r="F36" s="38" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
@@ -4075,7 +4080,9 @@
       <c r="E39" s="37">
         <v>42506</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="42" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
@@ -4111,7 +4118,9 @@
       <c r="E41" s="37">
         <v>42506</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="42" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
@@ -4120,7 +4129,7 @@
       <c r="B42" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="48" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="37">
@@ -4129,7 +4138,9 @@
       <c r="E42" s="37">
         <v>42506</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="42" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
@@ -4147,17 +4158,19 @@
       <c r="E43" s="37">
         <v>42506</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="42" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
@@ -4173,7 +4186,7 @@
         <v>42506</v>
       </c>
       <c r="E45" s="37">
-        <v>42509</v>
+        <v>42511</v>
       </c>
       <c r="F45" s="42"/>
     </row>

--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="4" r:id="rId3"/>
     <sheet name="Sprint3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="187">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -122,9 +123,6 @@
     <t>Útil</t>
   </si>
   <si>
-    <t>Listar Trabalhos</t>
-  </si>
-  <si>
     <t>Ùtil</t>
   </si>
   <si>
@@ -516,6 +514,81 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Inicio 02/05/2016</t>
+  </si>
+  <si>
+    <t>Fim 23/05/2016</t>
+  </si>
+  <si>
+    <t>Inscrição em Eventos</t>
+  </si>
+  <si>
+    <t>Critico</t>
+  </si>
+  <si>
+    <t>Correção, alteração e otimização Sprint3</t>
+  </si>
+  <si>
+    <t>História de Usuario 29 - Inscrição em Eventos</t>
+  </si>
+  <si>
+    <t>História de Usuário 30 – BugFixing</t>
+  </si>
+  <si>
+    <t>- Mensagem duplicada cadastro de usuário - bsf (bug)</t>
+  </si>
+  <si>
+    <t>- Sem mensagem cadastro de usuário</t>
+  </si>
+  <si>
+    <t>- Erro na primeira tentativa de login (ajax)</t>
+  </si>
+  <si>
+    <t>- Alteração de usuário só funciona pela 2º vez</t>
+  </si>
+  <si>
+    <t>- Troca de senha com erro de ajax (só funciona a 1º vez)</t>
+  </si>
+  <si>
+    <t>- Sem login por perfi (usuário e admin)</t>
+  </si>
+  <si>
+    <t>- Não monata a pagina para o administrado após login</t>
+  </si>
+  <si>
+    <t>- Validação de data de nascimento</t>
+  </si>
+  <si>
+    <t>- Erro na validação de cadastro de usuário</t>
+  </si>
+  <si>
+    <t>- Mensagens explicativas no cadastro de evento</t>
+  </si>
+  <si>
+    <t>- Esquecimento de senha (funcionar)</t>
+  </si>
+  <si>
+    <t>- Criar pagina automática</t>
+  </si>
+  <si>
+    <t>Estando autenticado no sistema posso escolher um evento a partir de uma lista de eventos para me inscrever || Só posso me inscrever se o periodo de inscrição esta aberto, só posso me inscrever se tem vaga no evento || Se o evento tem submissão de trabalho posso submeter um (1) arquivo (definir tipo de arquivo e tamanho) (Não mostrar opção de inscrição para eventos que já estão com as inscrições encerradas) (Não mostrar a opção de inscrição para eventos que já estão com as vagas encerradas - mostrar uma mensagem informativa)</t>
+  </si>
+  <si>
+    <t>Estando inscrito no evento posso submeter o arquivo depois da minha inscrição (somente dentro do periodo das inscrições do evento) || Só posso submeter 1 arquivo || Tipo de arquivo e tamanho ||</t>
+  </si>
+  <si>
+    <t>Dentro do priodo de inscrições de um evento quando eu já submeti um trabalho para este evento posso substituir este arquivo fazendo o upload de outro arquivo || Tamanho e tipo</t>
+  </si>
+  <si>
+    <t>Verificar trabalho inscrito no evento (visualizar)</t>
+  </si>
+  <si>
+    <t>Depois de estar inscrito em um evento e ter submetido um trabalho posso excluir o trabalho da inscrição (a submissão de trabalhos fica opcional) || Se o periodo da inscrição encerrar para eventos que possuem submissão de artigos e o usuario inscrito não submeter o arquivo ele entra apenas como participante</t>
   </si>
 </sst>
 </file>
@@ -525,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +694,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -727,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -882,11 +960,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1035,6 +1135,26 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,238 +1656,238 @@
       <c r="A17" s="3">
         <v>28</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="B17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>29</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="D20" s="50"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="22" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="23" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>14</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="F25" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>15</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>16</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>15</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A29" s="5">
+        <v>16</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>17</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>30</v>
@@ -1776,12 +1896,12 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>30</v>
@@ -1791,318 +1911,340 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>21</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>22</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>23</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
+        <v>22</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>23</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>24</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="6" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="D45" s="50"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>25</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>26</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>27</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>28</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>26</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>26</v>
-      </c>
-      <c r="B53" s="22" t="s">
+      <c r="C55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="6" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>27</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>27</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F56" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>30</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -2120,40 +2262,56 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="27"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="27" t="s">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="27"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="27" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="27" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2180,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2195,12 +2353,12 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2210,7 +2368,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2228,7 +2386,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -2238,30 +2396,30 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="16">
@@ -2274,10 +2432,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="16">
@@ -2290,13 +2448,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="16">
         <v>42453</v>
@@ -2308,10 +2466,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="16">
@@ -2324,13 +2482,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D12" s="16">
         <v>42457</v>
@@ -2342,13 +2500,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="16">
         <v>42457</v>
@@ -2360,13 +2518,13 @@
     </row>
     <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="16">
         <v>42457</v>
@@ -2378,10 +2536,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="16">
@@ -2394,10 +2552,10 @@
     </row>
     <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="16">
@@ -2410,10 +2568,10 @@
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="16">
@@ -2426,10 +2584,10 @@
     </row>
     <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="16">
@@ -2450,7 +2608,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -2460,33 +2618,33 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="16">
         <v>42453</v>
@@ -2498,13 +2656,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="16">
         <v>42453</v>
@@ -2516,10 +2674,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="16">
@@ -2548,7 +2706,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -2558,33 +2716,33 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="16">
         <v>42457</v>
@@ -2596,13 +2754,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="16">
         <v>42457</v>
@@ -2674,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2689,12 +2847,12 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2704,7 +2862,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -2722,7 +2880,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
@@ -2732,33 +2890,33 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="C7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="37">
         <v>42474</v>
@@ -2770,13 +2928,13 @@
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="37">
         <v>42474</v>
@@ -2788,13 +2946,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="37">
         <v>42474</v>
@@ -2806,13 +2964,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="37">
         <v>42474</v>
@@ -2824,13 +2982,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="37">
         <v>42478</v>
@@ -2839,18 +2997,18 @@
         <v>42483</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="37">
         <v>42478</v>
@@ -2859,18 +3017,18 @@
         <v>42483</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="37">
         <v>42483</v>
@@ -2882,13 +3040,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="37">
         <v>42483</v>
@@ -2900,13 +3058,13 @@
     </row>
     <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>117</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>118</v>
       </c>
       <c r="D16" s="37">
         <v>42484</v>
@@ -2918,13 +3076,13 @@
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="37">
         <v>42485</v>
@@ -2936,13 +3094,13 @@
     </row>
     <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="37">
         <v>42488</v>
@@ -2954,7 +3112,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
@@ -2964,33 +3122,33 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="37">
         <v>42478</v>
@@ -3002,13 +3160,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="37">
         <v>42478</v>
@@ -3020,13 +3178,13 @@
     </row>
     <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="37">
         <v>42478</v>
@@ -3038,13 +3196,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="37">
         <v>42484</v>
@@ -3056,13 +3214,13 @@
     </row>
     <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="37">
         <v>42485</v>
@@ -3074,7 +3232,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
@@ -3084,33 +3242,33 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="C27" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="D27" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="E27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="F27" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="37">
         <v>42478</v>
@@ -3122,13 +3280,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="37">
         <v>42478</v>
@@ -3140,13 +3298,13 @@
     </row>
     <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="37">
         <v>42478</v>
@@ -3158,13 +3316,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="37">
         <v>42484</v>
@@ -3176,13 +3334,13 @@
     </row>
     <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="37">
         <v>42485</v>
@@ -3194,7 +3352,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="56"/>
       <c r="C33" s="56"/>
@@ -3204,33 +3362,33 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="C34" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="D34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="E34" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="F34" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="37">
         <v>42478</v>
@@ -3242,13 +3400,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="37">
         <v>42478</v>
@@ -3260,13 +3418,13 @@
     </row>
     <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="37">
         <v>42478</v>
@@ -3278,13 +3436,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="37">
         <v>42484</v>
@@ -3296,13 +3454,13 @@
     </row>
     <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="37">
         <v>42485</v>
@@ -3314,7 +3472,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
@@ -3324,33 +3482,33 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="C41" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="D41" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="E41" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="F41" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="37">
         <v>42479</v>
@@ -3362,13 +3520,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="37">
         <v>42479</v>
@@ -3380,13 +3538,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="40">
         <v>42479</v>
@@ -3398,13 +3556,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="43">
         <v>42479</v>
@@ -3430,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,7 +3604,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3461,12 +3619,12 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -3476,7 +3634,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -3494,7 +3652,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
@@ -3504,33 +3662,33 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="C7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="37">
         <v>42501</v>
@@ -3542,13 +3700,13 @@
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="37">
         <v>42501</v>
@@ -3560,13 +3718,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="37">
         <v>42501</v>
@@ -3578,13 +3736,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="37">
         <v>42501</v>
@@ -3596,13 +3754,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="37">
         <v>42506</v>
@@ -3614,13 +3772,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="37">
         <v>42506</v>
@@ -3632,13 +3790,13 @@
     </row>
     <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="37">
         <v>42506</v>
@@ -3650,13 +3808,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="37">
         <v>42506</v>
@@ -3668,13 +3826,13 @@
     </row>
     <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="37">
         <v>42506</v>
@@ -3686,13 +3844,13 @@
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="37">
         <v>42506</v>
@@ -3704,13 +3862,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="37">
         <v>42506</v>
@@ -3722,13 +3880,13 @@
     </row>
     <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="37">
         <v>42506</v>
@@ -3740,7 +3898,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
@@ -3750,33 +3908,33 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="D21" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="E21" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="F21" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="37">
         <v>42509</v>
@@ -3788,13 +3946,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="37">
         <v>42509</v>
@@ -3806,13 +3964,13 @@
     </row>
     <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="37">
         <v>42509</v>
@@ -3824,13 +3982,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="37">
         <v>42509</v>
@@ -3842,13 +4000,13 @@
     </row>
     <row r="26" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="37">
         <v>42509</v>
@@ -3860,7 +4018,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
@@ -3870,33 +4028,33 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="C28" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="F28" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="37">
         <v>42513</v>
@@ -3908,13 +4066,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="37">
         <v>42513</v>
@@ -3926,13 +4084,13 @@
     </row>
     <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="37">
         <v>42513</v>
@@ -3944,13 +4102,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="37">
         <v>42513</v>
@@ -3962,13 +4120,13 @@
     </row>
     <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="37">
         <v>42513</v>
@@ -3980,7 +4138,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
@@ -3990,33 +4148,33 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="C35" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="D35" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="E35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="F35" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="37">
         <v>42499</v>
@@ -4025,18 +4183,18 @@
         <v>42506</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="37">
         <v>42499</v>
@@ -4048,13 +4206,13 @@
     </row>
     <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="37">
         <v>42499</v>
@@ -4066,13 +4224,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="37">
         <v>42499</v>
@@ -4081,18 +4239,18 @@
         <v>42506</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="37">
         <v>42499</v>
@@ -4104,13 +4262,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="37">
         <v>42499</v>
@@ -4119,18 +4277,18 @@
         <v>42506</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="37">
         <v>42499</v>
@@ -4139,18 +4297,18 @@
         <v>42506</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="37">
         <v>42499</v>
@@ -4159,12 +4317,12 @@
         <v>42506</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
@@ -4174,13 +4332,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="37">
         <v>42506</v>
@@ -4216,4 +4374,574 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E8" s="37">
+        <v>42496</v>
+      </c>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E9" s="37">
+        <v>42496</v>
+      </c>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E10" s="37">
+        <v>42496</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E11" s="37">
+        <v>42496</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="37">
+        <v>42496</v>
+      </c>
+      <c r="E12" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="37">
+        <v>42496</v>
+      </c>
+      <c r="E13" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="37">
+        <v>42496</v>
+      </c>
+      <c r="E14" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="37">
+        <v>42496</v>
+      </c>
+      <c r="E15" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="37">
+        <v>42503</v>
+      </c>
+      <c r="E16" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="37">
+        <v>42503</v>
+      </c>
+      <c r="E17" s="37">
+        <v>42506</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="37">
+        <v>42506</v>
+      </c>
+      <c r="E18" s="37">
+        <v>42513</v>
+      </c>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E22" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E23" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E24" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E25" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E26" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E27" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E28" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="40">
+        <v>42493</v>
+      </c>
+      <c r="E29" s="40">
+        <v>42503</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E30" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E31" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E32" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="37">
+        <v>42493</v>
+      </c>
+      <c r="E33" s="37">
+        <v>42503</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentos-SE/Requisitos/Planejamento-SE.xlsx
+++ b/Documentos-SE/Requisitos/Planejamento-SE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="194">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -540,55 +540,76 @@
     <t>História de Usuário 30 – BugFixing</t>
   </si>
   <si>
-    <t>- Mensagem duplicada cadastro de usuário - bsf (bug)</t>
-  </si>
-  <si>
-    <t>- Sem mensagem cadastro de usuário</t>
-  </si>
-  <si>
-    <t>- Erro na primeira tentativa de login (ajax)</t>
-  </si>
-  <si>
-    <t>- Alteração de usuário só funciona pela 2º vez</t>
-  </si>
-  <si>
-    <t>- Troca de senha com erro de ajax (só funciona a 1º vez)</t>
-  </si>
-  <si>
-    <t>- Sem login por perfi (usuário e admin)</t>
-  </si>
-  <si>
-    <t>- Não monata a pagina para o administrado após login</t>
-  </si>
-  <si>
-    <t>- Validação de data de nascimento</t>
-  </si>
-  <si>
-    <t>- Erro na validação de cadastro de usuário</t>
-  </si>
-  <si>
-    <t>- Mensagens explicativas no cadastro de evento</t>
-  </si>
-  <si>
-    <t>- Esquecimento de senha (funcionar)</t>
-  </si>
-  <si>
-    <t>- Criar pagina automática</t>
-  </si>
-  <si>
     <t>Estando autenticado no sistema posso escolher um evento a partir de uma lista de eventos para me inscrever || Só posso me inscrever se o periodo de inscrição esta aberto, só posso me inscrever se tem vaga no evento || Se o evento tem submissão de trabalho posso submeter um (1) arquivo (definir tipo de arquivo e tamanho) (Não mostrar opção de inscrição para eventos que já estão com as inscrições encerradas) (Não mostrar a opção de inscrição para eventos que já estão com as vagas encerradas - mostrar uma mensagem informativa)</t>
   </si>
   <si>
     <t>Estando inscrito no evento posso submeter o arquivo depois da minha inscrição (somente dentro do periodo das inscrições do evento) || Só posso submeter 1 arquivo || Tipo de arquivo e tamanho ||</t>
   </si>
   <si>
-    <t>Dentro do priodo de inscrições de um evento quando eu já submeti um trabalho para este evento posso substituir este arquivo fazendo o upload de outro arquivo || Tamanho e tipo</t>
-  </si>
-  <si>
     <t>Verificar trabalho inscrito no evento (visualizar)</t>
   </si>
   <si>
     <t>Depois de estar inscrito em um evento e ter submetido um trabalho posso excluir o trabalho da inscrição (a submissão de trabalhos fica opcional) || Se o periodo da inscrição encerrar para eventos que possuem submissão de artigos e o usuario inscrito não submeter o arquivo ele entra apenas como participante</t>
+  </si>
+  <si>
+    <t>Modelar o diagrama da classe –  Inscrição</t>
+  </si>
+  <si>
+    <t>Modelagem Banco de dados – classe  Inscrição</t>
+  </si>
+  <si>
+    <t>Testar a funcionalidade realizar inscrição</t>
+  </si>
+  <si>
+    <t>História de Usuario 22 – Incluir Trabalho</t>
+  </si>
+  <si>
+    <t>Testar a funcionalidade</t>
+  </si>
+  <si>
+    <t>História de Usuario 23 – Editar Trabalho</t>
+  </si>
+  <si>
+    <t>História de Usuario 24 – Consultar Trabalho</t>
+  </si>
+  <si>
+    <t>Mensagem duplicada cadastro de usuário - bsf (bug)</t>
+  </si>
+  <si>
+    <t>Sem mensagem cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Erro na primeira tentativa de login (ajax)</t>
+  </si>
+  <si>
+    <t>Alteração de usuário só funciona pela 2º vez</t>
+  </si>
+  <si>
+    <t>Troca de senha com erro de ajax (só funciona a 1º vez)</t>
+  </si>
+  <si>
+    <t>Sem login por perfil (usuário e admin)</t>
+  </si>
+  <si>
+    <t>Não monta a pagina para o administrador após login</t>
+  </si>
+  <si>
+    <t>Validação de data de nascimento</t>
+  </si>
+  <si>
+    <t>Erro na validação de cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Mensagens explicativas no cadastro de evento</t>
+  </si>
+  <si>
+    <t>Esquecimento de senha (funcionar)</t>
+  </si>
+  <si>
+    <t>Criar pagina automática</t>
+  </si>
+  <si>
+    <t>Dentro do periodo de inscrições de um evento quando eu já submeti um trabalho para este evento posso substituir este arquivo fazendo o upload de outro arquivo || Tamanho e tipo</t>
   </si>
 </sst>
 </file>
@@ -598,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +721,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,8 +840,20 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -961,12 +1009,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -974,10 +1039,23 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -986,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1112,6 +1190,8 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,25 +1216,51 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,30 +1559,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1487,14 +1593,14 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -1507,10 +1613,10 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
@@ -1672,35 +1778,35 @@
       <c r="A18" s="3">
         <v>29</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="76" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
@@ -1728,17 +1834,17 @@
       <c r="A22" s="5">
         <v>9</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="75" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="75" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1746,17 +1852,17 @@
       <c r="A23" s="5">
         <v>10</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="75" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="75" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1764,17 +1870,17 @@
       <c r="A24" s="5">
         <v>11</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="75" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="75" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1782,17 +1888,17 @@
       <c r="A25" s="5">
         <v>12</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="75" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="75" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1808,7 +1914,7 @@
       <c r="A27" s="5">
         <v>14</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1824,7 +1930,7 @@
       <c r="A28" s="5">
         <v>15</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1840,7 +1946,7 @@
       <c r="A29" s="5">
         <v>16</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="50" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1855,10 +1961,10 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
@@ -1949,10 +2055,10 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
@@ -2051,10 +2157,10 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
@@ -2157,10 +2263,10 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="50"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
@@ -2385,14 +2491,14 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -2607,14 +2713,14 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -2705,14 +2811,14 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -2879,14 +2985,14 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
@@ -3111,14 +3217,14 @@
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
@@ -3231,14 +3337,14 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -3351,14 +3457,14 @@
       <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
@@ -3471,14 +3577,14 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
@@ -3651,14 +3757,14 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
@@ -3897,14 +4003,14 @@
       <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
@@ -4017,14 +4123,14 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
@@ -4137,14 +4243,14 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
@@ -4321,14 +4427,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
@@ -4378,10 +4484,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4404,7 +4510,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
     </row>
-    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4443,16 +4549,16 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>60</v>
       </c>
@@ -4472,475 +4578,959 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="37">
-        <v>42493</v>
+        <v>42524</v>
       </c>
       <c r="E8" s="37">
-        <v>42496</v>
+        <v>42530</v>
       </c>
       <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>102</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>92</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="37">
-        <v>42493</v>
+        <v>42524</v>
       </c>
       <c r="E9" s="37">
-        <v>42496</v>
+        <v>42530</v>
       </c>
       <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="60" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="37">
-        <v>42493</v>
+        <v>42524</v>
       </c>
       <c r="E10" s="37">
-        <v>42496</v>
+        <v>42530</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="37">
-        <v>42493</v>
+        <v>42524</v>
       </c>
       <c r="E11" s="37">
-        <v>42496</v>
+        <v>42530</v>
       </c>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="60" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="37">
-        <v>42496</v>
+        <v>42524</v>
       </c>
       <c r="E12" s="37">
-        <v>42503</v>
+        <v>42530</v>
       </c>
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="60" t="s">
         <v>136</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="37">
-        <v>42496</v>
+        <v>42524</v>
       </c>
       <c r="E13" s="37">
-        <v>42503</v>
+        <v>42530</v>
       </c>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="60" t="s">
         <v>129</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="37">
-        <v>42496</v>
+        <v>42531</v>
       </c>
       <c r="E14" s="37">
-        <v>42503</v>
+        <v>42537</v>
       </c>
       <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="37">
-        <v>42496</v>
+        <v>42531</v>
       </c>
       <c r="E15" s="37">
-        <v>42503</v>
+        <v>42537</v>
       </c>
       <c r="F15" s="36"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="36" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D16" s="37">
-        <v>42503</v>
+        <v>42537</v>
       </c>
       <c r="E16" s="37">
-        <v>42506</v>
+        <v>42542</v>
       </c>
       <c r="F16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D17" s="37">
-        <v>42503</v>
+        <v>42537</v>
       </c>
       <c r="E17" s="37">
-        <v>42506</v>
+        <v>42542</v>
       </c>
       <c r="F17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D18" s="37">
-        <v>42506</v>
+        <v>42544</v>
       </c>
       <c r="E18" s="37">
-        <v>42513</v>
+        <v>42544</v>
       </c>
       <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="36"/>
+      <c r="A19" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E21" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E22" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E23" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="37">
+        <v>42531</v>
+      </c>
+      <c r="E24" s="37">
+        <v>42537</v>
+      </c>
+      <c r="F24" s="60"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="37">
+        <v>42531</v>
+      </c>
+      <c r="E25" s="37">
+        <v>42537</v>
+      </c>
+      <c r="F25" s="60"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="37">
+        <v>42537</v>
+      </c>
+      <c r="E26" s="37">
+        <v>42542</v>
+      </c>
+      <c r="F26" s="60"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="37">
+        <v>42544</v>
+      </c>
+      <c r="E27" s="37">
+        <v>42544</v>
+      </c>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E31" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F31" s="60"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E32" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E33" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="37">
+        <v>42531</v>
+      </c>
+      <c r="E34" s="37">
+        <v>42537</v>
+      </c>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="37">
+        <v>42531</v>
+      </c>
+      <c r="E35" s="37">
+        <v>42537</v>
+      </c>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="37">
+        <v>42537</v>
+      </c>
+      <c r="E36" s="37">
+        <v>42542</v>
+      </c>
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="37">
+        <v>42544</v>
+      </c>
+      <c r="E37" s="37">
+        <v>42544</v>
+      </c>
+      <c r="F37" s="64"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E41" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F41" s="60"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E42" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E43" s="37">
+        <v>42530</v>
+      </c>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="37">
+        <v>42531</v>
+      </c>
+      <c r="E44" s="37">
+        <v>42537</v>
+      </c>
+      <c r="F44" s="60"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="37">
+        <v>42531</v>
+      </c>
+      <c r="E45" s="37">
+        <v>42537</v>
+      </c>
+      <c r="F45" s="60"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="37">
+        <v>42537</v>
+      </c>
+      <c r="E46" s="37">
+        <v>42542</v>
+      </c>
+      <c r="F46" s="60"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="37">
+        <v>42544</v>
+      </c>
+      <c r="E47" s="37">
+        <v>42544</v>
+      </c>
+      <c r="F47" s="64"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B49" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C49" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D49" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E49" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F49" s="62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="48" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E22" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F22" s="38" t="s">
+      <c r="C50" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E50" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F50" s="60" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E23" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="59" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E51" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F51" s="69"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E24" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="C52" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E52" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F52" s="64"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E25" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F25" s="42" t="s">
+      <c r="C53" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E53" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F53" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="60" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E26" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="59" t="s">
+      <c r="C54" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E54" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F54" s="64"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E27" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F27" s="42" t="s">
+      <c r="C55" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E55" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F55" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E28" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F28" s="42" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E56" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F56" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="63" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="40">
-        <v>42493</v>
-      </c>
-      <c r="E29" s="40">
-        <v>42503</v>
-      </c>
-      <c r="F29" s="65" t="s">
+      <c r="C57" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E57" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F57" s="72" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="42" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E30" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F30" s="42" t="s">
+      <c r="C58" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E58" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F58" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="42" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E31" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F31" s="42" t="s">
+      <c r="C59" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E59" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F59" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E32" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F32" s="42" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E60" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F60" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="42" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="37">
-        <v>42493</v>
-      </c>
-      <c r="E33" s="37">
-        <v>42503</v>
-      </c>
-      <c r="F33" s="42" t="s">
+      <c r="C61" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="37">
+        <v>42524</v>
+      </c>
+      <c r="E61" s="63">
+        <v>42542</v>
+      </c>
+      <c r="F61" s="64" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A48:F48"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
